--- a/Lab_4/linpack_values.xlsx
+++ b/Lab_4/linpack_values.xlsx
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">size</t>
   </si>
   <si>
-    <t xml:space="preserve">MFLOPS</t>
+    <t xml:space="preserve">GFLOPS (DP ROLL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFLOPS(SP ROLL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFLOPS(DP UNROLL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFLOPS(SP UNROLL)</t>
   </si>
 </sst>
 </file>
@@ -121,13 +130,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.39"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -136,13 +151,31 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2952.135</v>
+        <v>2.952135</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5.052734</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3.808467</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>5.405542</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -150,7 +183,16 @@
         <v>200</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3969.01</v>
+        <v>3.96901</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>6.355172</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4.027478</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>6.862287</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -158,7 +200,16 @@
         <v>300</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3853.409</v>
+        <v>3.853409</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>7.123549</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4.386007</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>6.155202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -166,7 +217,16 @@
         <v>400</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4340.159</v>
+        <v>4.340159</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>7.609608</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4.697021</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>7.310656</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -174,7 +234,16 @@
         <v>500</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4506.926</v>
+        <v>4.506926</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>7.961606</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5.060199</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>8.049522</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -182,7 +251,16 @@
         <v>600</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4554.424</v>
+        <v>4.554424</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>8.126411</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5.055844</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>8.273827</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -190,7 +268,16 @@
         <v>700</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4645.727</v>
+        <v>4.645727</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>8.33294</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4.601243</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8.463586</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,7 +285,16 @@
         <v>800</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4411.726</v>
+        <v>4.411726</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>7.144196</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4.510408</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>8.512428</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -206,7 +302,16 @@
         <v>900</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3793.666</v>
+        <v>3.793666</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>7.529649</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>4.398378</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>8.39013</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -214,7 +319,16 @@
         <v>1000</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3160.322</v>
+        <v>3.160322</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>8.178578</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3.39922</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>7.728517</v>
       </c>
     </row>
   </sheetData>
